--- a/Rostering/archivo_cap.xlsx
+++ b/Rostering/archivo_cap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,16 +460,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>10:00 - 11:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>10:00 - 11:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>10:00 - 11:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,20 +546,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANDRES FELIPE PARDO SANCHEZ</t>
+          <t>ALEXIS JOSE FRANCO GAMARRA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,20 +576,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANDRES FELIPE PARDO SANCHEZ</t>
+          <t>ALEXIS JOSE FRANCO GAMARRA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,20 +606,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANDRES FELIPE PARDO SANCHEZ</t>
+          <t>ALEXIS JOSE FRANCO GAMARRA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -636,20 +636,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRAYAN STIVEN MORENO CORREDOR</t>
+          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -666,20 +666,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRAYAN STIVEN MORENO CORREDOR</t>
+          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -696,20 +696,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRAYAN STIVEN MORENO CORREDOR</t>
+          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -726,15 +726,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
+          <t>BARBARA CAROLINA AVILA RUIZ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,15 +756,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
+          <t>BARBARA CAROLINA AVILA RUIZ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -786,20 +786,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
+          <t>BARBARA CAROLINA AVILA RUIZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -816,20 +816,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DEISY VALERIA FERNANDEZ CHAPARRO</t>
+          <t>BRAYAN ALEXANDER HERNANDEZ CORBA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -846,20 +846,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DEISY VALERIA FERNANDEZ CHAPARRO</t>
+          <t>BRAYAN ALEXANDER HERNANDEZ CORBA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -876,20 +876,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DEISY VALERIA FERNANDEZ CHAPARRO</t>
+          <t>BRAYAN STIVEN MORENO CORREDOR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DIEGO ANDRES CASALLAS GUTIERREZ</t>
+          <t>BRAYAN STIVEN MORENO CORREDOR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -936,20 +936,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DIEGO ANDRES CASALLAS GUTIERREZ</t>
+          <t>BRAYAN STIVEN MORENO CORREDOR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -966,20 +966,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DIEGO ANDRES CASALLAS GUTIERREZ</t>
+          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
+          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16:45 - 17:45</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1026,20 +1026,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
+          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16:45 - 17:45</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1056,20 +1056,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
+          <t>CESAR AUGUSTO GUEVARA MONTAÑA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16:45 - 17:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1086,20 +1086,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
+          <t>CESAR AUGUSTO GUEVARA MONTAÑA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14:00 - 15:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1116,20 +1116,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
+          <t>CESAR AUGUSTO GUEVARA MONTAÑA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:00 - 15:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1146,20 +1146,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
+          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14:00 - 15:00</t>
+          <t>14:30 - 15:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1176,20 +1176,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ESTEFANIA JOSMER RAMIREZ SANABRIA</t>
+          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>14:30 - 15:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1206,20 +1206,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ESTEFANIA JOSMER RAMIREZ SANABRIA</t>
+          <t>CRISTIAN ALEJANDRO AREVALO DIAZ</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>14:30 - 15:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1236,20 +1236,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ESTEFANIA JOSMER RAMIREZ SANABRIA</t>
+          <t>DEISY VALERIA FERNANDEZ CHAPARRO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1266,20 +1266,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GILBERTO RAFAEL MEZA CADENAS</t>
+          <t>DEISY VALERIA FERNANDEZ CHAPARRO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1296,20 +1296,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GILBERTO RAFAEL MEZA CADENAS</t>
+          <t>DERLY IVONNE ESCUDERO HERNANDEZ</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1326,20 +1326,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GILBERTO RAFAEL MEZA CADENAS</t>
+          <t>DERLY IVONNE ESCUDERO HERNANDEZ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1356,20 +1356,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JAKELIN ALVAREZ FLOREZ</t>
+          <t>DERLY IVONNE ESCUDERO HERNANDEZ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:30 - 17:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1386,20 +1386,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JAKELIN ALVAREZ FLOREZ</t>
+          <t>DIANA CAROLINA ALVARADO VELASCO</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16:30 - 17:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1416,20 +1416,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JAKELIN ALVAREZ FLOREZ</t>
+          <t>DIANA CAROLINA ALVARADO VELASCO</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16:30 - 17:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1446,20 +1446,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
+          <t>DIANA CAROLINA ALVARADO VELASCO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>08:00 - 09:00</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1476,20 +1476,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
+          <t>DINA PAOLA RODRIGUEZ</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>08:00 - 09:00</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1506,20 +1506,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
+          <t>DINA PAOLA RODRIGUEZ</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:00 - 09:00</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1536,20 +1536,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KEVIN NICOLAS BUENAVENTURA RAMIREZ</t>
+          <t>DINA PAOLA RODRIGUEZ</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1566,20 +1566,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KEVIN NICOLAS BUENAVENTURA RAMIREZ</t>
+          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1596,20 +1596,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KEVIN NICOLAS BUENAVENTURA RAMIREZ</t>
+          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1626,20 +1626,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LAURA DANIELA CAMELO LOAIZA</t>
+          <t>DUBAN RICARDO LOPEZ ACOSTA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1656,20 +1656,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LAURA DANIELA CAMELO LOAIZA</t>
+          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1686,20 +1686,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LAURA DANIELA CAMELO LOAIZA</t>
+          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1716,20 +1716,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
+          <t>DUVAN FELIPE ROMERO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1746,20 +1746,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
+          <t>ELIANA MILENA MONTENEGRO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1776,20 +1776,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
+          <t>ELIANA MILENA MONTENEGRO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1806,15 +1806,15 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LINA JULIETH ORTIZ ARENAS</t>
+          <t>ELIANA MILENA MONTENEGRO RODRIGUEZ</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1836,20 +1836,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LINA JULIETH ORTIZ ARENAS</t>
+          <t>FRANCY JANETH SILVESTRE OTALORA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1866,20 +1866,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LINA JULIETH ORTIZ ARENAS</t>
+          <t>FRANCY JANETH SILVESTRE OTALORA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1896,20 +1896,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MAGNOLIA MAYLIN LEON RINCON</t>
+          <t>GILBERTO RAFAEL MEZA CADENAS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11:45 - 12:45</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1926,20 +1926,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MAGNOLIA MAYLIN LEON RINCON</t>
+          <t>GILBERTO RAFAEL MEZA CADENAS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11:45 - 12:45</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1956,20 +1956,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MAGNOLIA MAYLIN LEON RINCON</t>
+          <t>GILBERTO RAFAEL MEZA CADENAS</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11:45 - 12:45</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1986,20 +1986,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MAURICIO RODRIGUEZ SANCHEZ</t>
+          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2016,20 +2016,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MAURICIO RODRIGUEZ SANCHEZ</t>
+          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2046,20 +2046,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MAURICIO RODRIGUEZ SANCHEZ</t>
+          <t>JEISON JAVIER ESCOBAR SANCHEZ</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2076,20 +2076,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MILDRED FERNANDA VALENTE MENDOZA</t>
+          <t>JENNIFER CONSTANZA RIVERA MONTAÑA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18:30 - 19:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2106,20 +2106,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MILDRED FERNANDA VALENTE MENDOZA</t>
+          <t>JENNIFER CONSTANZA RIVERA MONTAÑA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>18:30 - 19:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2136,20 +2136,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MILDRED FERNANDA VALENTE MENDOZA</t>
+          <t>JENNIFER CONSTANZA RIVERA MONTAÑA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>18:30 - 19:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2166,20 +2166,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
+          <t>JOEL SEBASTIAN FORERO BERNAL</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>18:30 - 19:30</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2196,20 +2196,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
+          <t>JOEL SEBASTIAN FORERO BERNAL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>18:30 - 19:30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2226,20 +2226,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
+          <t>JOEL SEBASTIAN FORERO BERNAL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2256,20 +2256,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
+          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2286,20 +2286,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
+          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2316,20 +2316,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
+          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09:00 - 10:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2346,20 +2346,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>STEFANY BAUTISTA ORTIZ</t>
+          <t>JOSE GERARDO SANCHEZ ESCOBAR</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2376,20 +2376,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>STEFANY BAUTISTA ORTIZ</t>
+          <t>JOSE GERARDO SANCHEZ ESCOBAR</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2406,20 +2406,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>STEFANY BAUTISTA ORTIZ</t>
+          <t>JOSE GERARDO SANCHEZ ESCOBAR</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>14:00 - 15:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2436,20 +2436,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
+          <t>JUAN DAVID DELBASTO MARQUEZ</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2466,20 +2466,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
+          <t>JUAN DAVID DELBASTO MARQUEZ</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2496,20 +2496,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
+          <t>JUAN DAVID DELBASTO MARQUEZ</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2526,20 +2526,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DAYANA GONZALEZ HERNANDEZ</t>
+          <t>JULIAN DAVID ACUÑA GARZON</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2556,20 +2556,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DAYANA GONZALEZ HERNANDEZ</t>
+          <t>JULIAN DAVID ACUÑA GARZON</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2586,20 +2586,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DAYANA GONZALEZ HERNANDEZ</t>
+          <t>JULIAN DAVID ACUÑA GARZON</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2616,20 +2616,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NICOL FERNANDA RIVERA MORENO</t>
+          <t>JULISA JOHANA JUVINAO SERVANTES</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2646,20 +2646,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NICOL FERNANDA RIVERA MORENO</t>
+          <t>JULISA JOHANA JUVINAO SERVANTES</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2676,20 +2676,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NICOL FERNANDA RIVERA MORENO</t>
+          <t>JULISA JOHANA JUVINAO SERVANTES</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13:30 - 14:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2706,15 +2706,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MICHAEL ANDRES TORRES MANRIQUE</t>
+          <t>LAURA DANIELA CAMELO LOAIZA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2736,15 +2736,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MICHAEL ANDRES TORRES MANRIQUE</t>
+          <t>LAURA DANIELA CAMELO LOAIZA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2766,15 +2766,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MICHAEL ANDRES TORRES MANRIQUE</t>
+          <t>LAURA DANIELA CAMELO LOAIZA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2796,20 +2796,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LEIDY MARCELA AVILA CANO</t>
+          <t>LAURA VALENTINA GARCIA GALVIS</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2826,20 +2826,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LEIDY MARCELA AVILA CANO</t>
+          <t>LAURA VALENTINA GARCIA GALVIS</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2856,20 +2856,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LEIDY MARCELA AVILA CANO</t>
+          <t>LAURA VALENTINA GARCIA GALVIS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2886,20 +2886,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JUAN CAMILO RODRIGUEZ ARIZA</t>
+          <t>LEIDY CAROLINA ARTEAGA AMAYA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>19:15 - 20:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2916,20 +2916,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JUAN CAMILO RODRIGUEZ ARIZA</t>
+          <t>LEIDY CAROLINA ARTEAGA AMAYA</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>19:15 - 20:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2946,20 +2946,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JUAN CAMILO RODRIGUEZ ARIZA</t>
+          <t>LEIDY CAROLINA ARTEAGA AMAYA</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>19:15 - 20:15</t>
+          <t>14:30 - 15:30</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2976,20 +2976,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
+          <t>LEIDY MARCELA AVILA CANO</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17:00 - 18:00</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3006,20 +3006,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
+          <t>LEIDY MARCELA AVILA CANO</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17:00 - 18:00</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3036,20 +3036,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
+          <t>LEIDY MARCELA AVILA CANO</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17:00 - 18:00</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3066,20 +3066,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PAULA VIVIANA NEUSA ORTIZ</t>
+          <t>LESLIE ESTEFANIA DUQUE PIRELA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3096,20 +3096,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PAULA VIVIANA NEUSA ORTIZ</t>
+          <t>LESLIE ESTEFANIA DUQUE PIRELA</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3126,20 +3126,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PAULA VIVIANA NEUSA ORTIZ</t>
+          <t>LESLIE ESTEFANIA DUQUE PIRELA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14:45 - 15:45</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3156,20 +3156,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KEINKER KLEDER ALVAREZ PEÑA</t>
+          <t>LESLY TATIANA GUERRERO DOMINGUEZ</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3186,20 +3186,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KEINKER KLEDER ALVAREZ PEÑA</t>
+          <t>LESLY TATIANA GUERRERO DOMINGUEZ</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3216,20 +3216,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KEINKER KLEDER ALVAREZ PEÑA</t>
+          <t>LESLY TATIANA GUERRERO DOMINGUEZ</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17:30 - 18:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3246,20 +3246,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>JOEL SEBASTIAN FORERO BERNAL</t>
+          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>18:30 - 19:30</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3276,20 +3276,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>JOEL SEBASTIAN FORERO BERNAL</t>
+          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>18:30 - 19:30</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3306,20 +3306,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>JOEL SEBASTIAN FORERO BERNAL</t>
+          <t>LETTYAN KARINA SOSA GUTIERREZ</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13:00 - 14:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3336,20 +3336,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FRANCY JANETH SILVESTRE OTALORA</t>
+          <t>LINA JULIETH ORTIZ ARENAS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3366,20 +3366,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FRANCY JANETH SILVESTRE OTALORA</t>
+          <t>LINA JULIETH ORTIZ ARENAS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3396,20 +3396,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FRANCY JANETH SILVESTRE OTALORA</t>
+          <t>LINA JULIETH ORTIZ ARENAS</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>08:45 - 09:45</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3426,20 +3426,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
+          <t>LUIS ANTONIO POSSO MORALES</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10:30 - 11:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3456,20 +3456,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
+          <t>LUIS ANTONIO POSSO MORALES</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10:30 - 11:30</t>
+          <t>13:00 - 14:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3486,20 +3486,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JONATHAN RAY HERNANDEZ MINOTA</t>
+          <t>LUZ DARY MALAGON TOVAR</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10:30 - 11:30</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3516,20 +3516,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DIANA CAROLINA ALVARADO VELASCO</t>
+          <t>LUZ DARY MALAGON TOVAR</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10:15 - 11:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3546,20 +3546,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DIANA CAROLINA ALVARADO VELASCO</t>
+          <t>LUZ DARY MALAGON TOVAR</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10:15 - 11:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3576,20 +3576,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DIANA CAROLINA ALVARADO VELASCO</t>
+          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10:15 - 11:15</t>
+          <t>17:00 - 18:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3606,20 +3606,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LORIANA AIDA GUERRA AVILES</t>
+          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>17:00 - 18:00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3636,20 +3636,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LORIANA AIDA GUERRA AVILES</t>
+          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>17:00 - 18:00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3666,20 +3666,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LORIANA AIDA GUERRA AVILES</t>
+          <t>MARTIN ALEJANDRO OYOLA RONCANCIO</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10:45 - 11:45</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3696,20 +3696,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
+          <t>MARTIN ALEJANDRO OYOLA RONCANCIO</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3726,20 +3726,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
+          <t>MARTIN ALEJANDRO OYOLA RONCANCIO</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3756,20 +3756,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
+          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>17:30 - 18:30</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3786,20 +3786,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FRANCISCO ANTONIO FIGUEROA ALVIAREZ</t>
+          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>17:30 - 18:30</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3816,20 +3816,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FRANCISCO ANTONIO FIGUEROA ALVIAREZ</t>
+          <t>MIGUEL FRANCISCO HERNANDEZ CLAVIJO</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>17:30 - 18:30</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3846,20 +3846,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FRANCISCO ANTONIO FIGUEROA ALVIAREZ</t>
+          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3876,20 +3876,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RAFAEL ALBERTO JAIME VIGOYA</t>
+          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3906,20 +3906,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RAFAEL ALBERTO JAIME VIGOYA</t>
+          <t>NATALIA LIZETH MUÑOZ VELANDIA</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3936,20 +3936,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RAFAEL ALBERTO JAIME VIGOYA</t>
+          <t>NATALY CASTRO NARVAEZ</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13:45 - 14:45</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3966,20 +3966,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BARBARA CAROLINA AVILA RUIZ</t>
+          <t>NATALY CASTRO NARVAEZ</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>18:00 - 19:00</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3996,20 +3996,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BARBARA CAROLINA AVILA RUIZ</t>
+          <t>NATALY CASTRO NARVAEZ</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>18:00 - 19:00</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4026,20 +4026,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BARBARA CAROLINA AVILA RUIZ</t>
+          <t>NESLY TATIANA OSPINA CUESTA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>18:00 - 19:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4056,20 +4056,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NATALY CASTRO NARVAEZ</t>
+          <t>NESLY TATIANA OSPINA CUESTA</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4086,20 +4086,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NATALY CASTRO NARVAEZ</t>
+          <t>NESLY TATIANA OSPINA CUESTA</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4116,20 +4116,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NATALY CASTRO NARVAEZ</t>
+          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4146,20 +4146,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
+          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4176,20 +4176,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
+          <t>NICOLTH JULIETH COLLADO VELANDIA</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>11:00 - 12:00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4206,20 +4206,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ARISMER ADRIANA SANABRIA PEREZ</t>
+          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>14:30 - 15:30</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4236,20 +4236,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VICTOR MANUEL BARRIGA ALONSO</t>
+          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4266,20 +4266,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>VICTOR MANUEL BARRIGA ALONSO</t>
+          <t>PASTOR ORLANDO GARCIA PEREIRA</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>10:30 - 11:30</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4296,20 +4296,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VICTOR MANUEL BARRIGA ALONSO</t>
+          <t>SANTIAGO RODRIGUEZ CASTILLO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>17:45 - 18:45</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4326,20 +4326,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
+          <t>SANTIAGO RODRIGUEZ CASTILLO</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>08:15 - 09:15</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4356,20 +4356,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
+          <t>SANTIAGO RODRIGUEZ CASTILLO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>26/09/2020</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>08:15 - 09:15</t>
+          <t>12:30 - 13:30</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4386,20 +4386,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MARTHA AMPARO VILLEGA JIMENEZ</t>
+          <t>SORAIMA DEL CARMEN ARELLANO CASTRO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>08:15 - 09:15</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4416,20 +4416,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
+          <t>SORAIMA DEL CARMEN ARELLANO CASTRO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>18:15 - 19:15</t>
+          <t>16:30 - 17:30</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4446,20 +4446,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
+          <t>STEFANY BAUTISTA ORTIZ</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>18:15 - 19:15</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4476,20 +4476,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CARMEN PATRICIA TAUTIVA VARGAS</t>
+          <t>STEFANY BAUTISTA ORTIZ</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>18:15 - 19:15</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4506,20 +4506,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LUIS ANTONIO POSSO MORALES</t>
+          <t>STEFANY BAUTISTA ORTIZ</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>12:30 - 13:30</t>
+          <t>13:30 - 14:30</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4536,20 +4536,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LUIS ANTONIO POSSO MORALES</t>
+          <t>TAYRO LUIS ALVAREZ DE ORTA</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>12:30 - 13:30</t>
+          <t>10:00 - 11:00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4566,20 +4566,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LUIS ANTONIO POSSO MORALES</t>
+          <t>TAYRO LUIS ALVAREZ DE ORTA</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12:30 - 13:30</t>
+          <t>10:00 - 11:00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4596,20 +4596,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>JULISA JOHANA JUVINAO SERVANTES</t>
+          <t>VICTOR MANUEL BARRIGA ALONSO</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12:15 - 13:15</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4626,20 +4626,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>JULISA JOHANA JUVINAO SERVANTES</t>
+          <t>VICTOR MANUEL BARRIGA ALONSO</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12:15 - 13:15</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4656,20 +4656,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JULISA JOHANA JUVINAO SERVANTES</t>
+          <t>VICTOR MANUEL BARRIGA ALONSO</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12:15 - 13:15</t>
+          <t>18:00 - 19:00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4686,20 +4686,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JESUS FERNANDO DIAZ SANCHEZ</t>
+          <t>WILMER LEONARDO CASTIBLANCO ALVAREZ</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4716,20 +4716,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JESUS FERNANDO DIAZ SANCHEZ</t>
+          <t>WILMER LEONARDO CASTIBLANCO ALVAREZ</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4746,20 +4746,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JESUS FERNANDO DIAZ SANCHEZ</t>
+          <t>WILMER LEONARDO CASTIBLANCO ALVAREZ</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10:00 - 11:00</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4776,20 +4776,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TAYRO LUIS ALVAREZ DE HORTA</t>
+          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>30/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>13:15 - 14:15</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4806,20 +4806,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TAYRO LUIS ALVAREZ DE HORTA</t>
+          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>13:15 - 14:15</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4836,20 +4836,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TAYRO LUIS ALVAREZ DE HORTA</t>
+          <t>YERILETH CARIOXI MORALES MARQUEZ</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>13:15 - 14:15</t>
+          <t>16:00 - 17:00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4866,20 +4866,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SORAIMA DEL CARMEN ARELLANO CASTRO</t>
+          <t>YESICA PAOLA ESPITIA DIAZ</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4896,20 +4896,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SORAIMA DEL CARMEN ARELLANO CASTRO</t>
+          <t>YESICA PAOLA ESPITIA DIAZ</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4926,20 +4926,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SORAIMA DEL CARMEN ARELLANO CASTRO</t>
+          <t>YESICA PAOLA ESPITIA DIAZ</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>14:15 - 15:15</t>
+          <t>15:00 - 16:00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4956,20 +4956,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DINA PAOLA RODRIGUEZ</t>
+          <t>YONDRI ALEXANDER SOTO TAPIA</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>27/08/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>15:00 - 16:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4986,20 +4986,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DINA PAOLA RODRIGUEZ</t>
+          <t>YONDRI ALEXANDER SOTO TAPIA</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>15:00 - 16:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5016,20 +5016,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DINA PAOLA RODRIGUEZ</t>
+          <t>YONDRI ALEXANDER SOTO TAPIA</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>29/08/2020</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>15:00 - 16:00</t>
+          <t>15:30 - 16:30</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5038,96 +5038,6 @@
         </is>
       </c>
       <c r="F154" t="inlineStr">
-        <is>
-          <t>Refuerzo semanal</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO SALAZAR MARTINEZ</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>30/08/2020</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>09:15 - 10:15</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Por asignar</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Refuerzo semanal</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO SALAZAR MARTINEZ</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>31/08/2020</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>09:15 - 10:15</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Por asignar</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Refuerzo semanal</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>CARLOS ALBERTO SALAZAR MARTINEZ</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>01/09/2020</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>09:15 - 10:15</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Por asignar</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
         <is>
           <t>Refuerzo semanal</t>
         </is>
